--- a/makros/aufgaben/Einzeiler.xlsx
+++ b/makros/aufgaben/Einzeiler.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minos\repos\module122\makros\aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6091A-B619-4B92-9CC1-0CA5CA50B008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C4EF9F-5CBC-4233-9964-6342691E2498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6950" yWindow="770" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="2" xr2:uid="{118E89FB-2850-498C-8E30-C7F94F284844}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{118E89FB-2850-498C-8E30-C7F94F284844}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="2. Tabellenblatt" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle6" sheetId="6" r:id="rId3"/>
+    <sheet name="3. Tabelle" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -60,12 +60,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>asdf</t>
-  </si>
-  <si>
-    <t>asfds</t>
   </si>
 </sst>
 </file>
@@ -101,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -563,17 +561,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492B4278-9089-4981-8B1B-806396AC75A1}">
   <sheetPr codeName="Tabelle6"/>
-  <dimension ref="D11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44068.606261574074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
